--- a/data_analysis/open_questions_coded.xlsx
+++ b/data_analysis/open_questions_coded.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\tragedynatural\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F23216-4E6F-49D4-9D7A-CC81F5B04981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40ABB2-EFA0-4038-AA41-C644885206BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07CAC3FE-44B9-459B-8456-AAD70BB5EA98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{07CAC3FE-44B9-459B-8456-AAD70BB5EA98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sostenibilita" sheetId="5" r:id="rId1"/>
+    <sheet name="imparato" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,67 +37,403 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>diminuire l'inquinamento</t>
-  </si>
-  <si>
-    <t>trovare un equilibrio</t>
-  </si>
-  <si>
-    <t>riciclare</t>
-  </si>
-  <si>
-    <t>capace di durare nel tempo</t>
-  </si>
-  <si>
-    <t>curare il ben-essere del sistema pianeta</t>
-  </si>
-  <si>
-    <t>consapevolezza delle proprie azioni</t>
-  </si>
-  <si>
-    <t>bilanciare costi e guadagni</t>
-  </si>
-  <si>
-    <t>cooperare</t>
-  </si>
-  <si>
-    <t>essere ecologisti</t>
-  </si>
-  <si>
-    <t>ridurre il consumo</t>
-  </si>
-  <si>
-    <t>altro</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>counts</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
+  <si>
+    <t>NA – </t>
+  </si>
+  <si>
+    <t>che non è importante quante mucche acquisti ma l’importante è collaborare con gli altri ‘’allevatori” per rigenerare i campi</t>
+  </si>
+  <si>
+    <t>Chi avvelena le mucche non merita niente</t>
+  </si>
+  <si>
+    <t>che la cooperazione con tutti gli enti della simulazione é importante, per organizzarsi con il territorio</t>
+  </si>
+  <si>
+    <t>Cha non posso fare l’allevatore</t>
+  </si>
+  <si>
+    <t>Ho imparato come cercare di collaborare con altre persone per arrivare a un obbiettivo comune</t>
+  </si>
+  <si>
+    <t>Che alle mucche piace morire</t>
+  </si>
+  <si>
+    <t>Come è difficile la vita di un pastore</t>
+  </si>
+  <si>
+    <t>usare bene le strategie</t>
+  </si>
+  <si>
+    <t>Che più mucche ci sono in un terreno peggio è, quindi non siate tirchi</t>
+  </si>
+  <si>
+    <t>Non bisogna puntare al capitalismo</t>
+  </si>
+  <si>
+    <t>Che l’allevamento intensivo funziona meglio e si guadagna di più, l'egoismo è la chiave della vittoria</t>
+  </si>
+  <si>
+    <t>Concurention of buisness</t>
+  </si>
+  <si>
+    <t>Che se si collabora è meglio</t>
+  </si>
+  <si>
+    <t>"Che sono meglio i polli ti fanno fatturate di più”</t>
+  </si>
+  <si>
+    <t>A collaborare</t>
+  </si>
+  <si>
+    <t>che le mucche muoiono facile</t>
+  </si>
+  <si>
+    <t>Bisogna spendere tanto per guadagnare tanto</t>
+  </si>
+  <si>
+    <t>la gestione dei soldi</t>
+  </si>
+  <si>
+    <t>i soldi sono più importanti della vita, qua si preferisce pensare al guadagno non pensando a quante vite si buttino all’aria, egoismo</t>
+  </si>
+  <si>
+    <t>il gioco di squadra</t>
+  </si>
+  <si>
+    <t>a usare meno mucche per far vivere più animali</t>
+  </si>
+  <si>
+    <t>Se si parla di sostenibilità non ha senso puntare tutto il guadagno perché perdi solo</t>
+  </si>
+  <si>
+    <t>ho imparato a moderare il guadagno con le spese e la sostenibilità</t>
+  </si>
+  <si>
+    <t>Che investendo su molte mucche ci saranno molte perdite è un grande impatto ambientale</t>
+  </si>
+  <si>
+    <t>Che bisogna investire di più sui terreni e meno sul mercato delle mucche</t>
+  </si>
+  <si>
+    <t>NA –</t>
+  </si>
+  <si>
+    <t>bisogna essere tutti più sostenibili e non basarsi solo sul guadagno</t>
+  </si>
+  <si>
+    <t>La sostenibilità</t>
+  </si>
+  <si>
+    <t>Che non bisogna guadagnare ma bisogna fare attenzione alla sostenibilità</t>
+  </si>
+  <si>
+    <t>Che dal gioco è più facile, far capire cose fondamentali, per il nostro pianeta</t>
+  </si>
+  <si>
+    <t>Che non bisogna spendere troppi soldi e non mettere troppe mucche</t>
+  </si>
+  <si>
+    <t>Mai seguire le strategie degli altri</t>
+  </si>
+  <si>
+    <t>Che si deve collaborare altrimenti nessuno ne ricava niente</t>
+  </si>
+  <si>
+    <t>la collaborazione</t>
+  </si>
+  <si>
+    <t>non inseguire le strategie degli altri</t>
+  </si>
+  <si>
+    <t>che il gruppo giallo barava</t>
+  </si>
+  <si>
+    <t>a non sprecare terreno</t>
+  </si>
+  <si>
+    <t>di dover collaborare tutti insieme per un obbiettivo comune per essere più sostenibili possibile</t>
+  </si>
+  <si>
+    <t>a non sprecare terreno e avere più coscienza di quello che faccio</t>
+  </si>
+  <si>
+    <t>a non uccidere mucche</t>
+  </si>
+  <si>
+    <t>Che 50 mucche sono meglio di 6</t>
+  </si>
+  <si>
+    <t>ad utilizzare correttamente i soldi</t>
+  </si>
+  <si>
+    <t>Quanto tempo ci voglia ad ideare una metodologia efficace e soprattutto farla rispettare agli altri</t>
+  </si>
+  <si>
+    <t>Ho imparato che avere una tecnica comune porta vantaggio a tutti i partecipanti</t>
+  </si>
+  <si>
+    <t>che non bisogna mettere troppo cose visto che il terreno è di tutti perchè si vanno a danneggiare cose altrui</t>
+  </si>
+  <si>
+    <t>dobbiamo aiutarci a vicenda</t>
+  </si>
+  <si>
+    <t>che sono ludopatico</t>
+  </si>
+  <si>
+    <t>che si deve sempre fare le cose insieme -cooperare</t>
+  </si>
+  <si>
+    <t>A guadagnare bene </t>
+  </si>
+  <si>
+    <t>come é il commercio </t>
+  </si>
+  <si>
+    <t>Ho imparato l'uso del commercio</t>
+  </si>
+  <si>
+    <t>che non bisogna inquinare </t>
+  </si>
+  <si>
+    <t>che bisogna essere sostenibili </t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>cercare di diminuire l’inquinamento adattando tecniche di allevamento diverse</t>
+  </si>
+  <si>
+    <t>Un rapporto equilibrato tra guadagno e cura al materiale/terreno</t>
+  </si>
+  <si>
+    <t>Riutilizzabile</t>
+  </si>
+  <si>
+    <t>sostenere qualcosa</t>
+  </si>
+  <si>
+    <t>si definisce con il termine di sostenibilità un qualcosa che é duraturo nel tempo e non apporta danni all’ ambiente ma , al contrario, contribuisce al miglioramento di quest’ultimo</t>
+  </si>
+  <si>
+    <t>basta</t>
+  </si>
+  <si>
+    <t>Sostenibilità vuol dire cercare di tenere il pianeta in buone condizioni</t>
+  </si>
+  <si>
+    <t>paga il pizzo o ti vengo a cercare😈</t>
+  </si>
+  <si>
+    <t>Il bilancio tra guadagno e perdita</t>
+  </si>
+  <si>
+    <t>guardare la situazione e cercare soluzioni per migliorare la situazione in quell'ambito ed inquinare di meno</t>
+  </si>
+  <si>
+    <t>Piante in vita, più ossigeno, più api etc</t>
+  </si>
+  <si>
+    <t>Do desicions logically</t>
+  </si>
+  <si>
+    <t>La sostenibilità serve a sostenere noi e l’ambiente</t>
+  </si>
+  <si>
+    <t>Aspetta che la so</t>
+  </si>
+  <si>
+    <t>Tutto quello che non inquina</t>
+  </si>
+  <si>
+    <t>xinnie dice che mi adora</t>
+  </si>
+  <si>
+    <t>Più mucche più lucro però bisogna spendere un botto in terreno</t>
+  </si>
+  <si>
+    <t>paga il pizzo o chiamo il commercialista.</t>
+  </si>
+  <si>
+    <t>sostenere la vita, mantenere un mondo in pace dove tutti abbiamo gli stessi valori,</t>
+  </si>
+  <si>
+    <t>contribuire tutti per diminuire le perdite e aumentare il guadagno in modo stabile senza fare debiti o morti</t>
+  </si>
+  <si>
+    <t>aiutarsi l’uno con l’altro</t>
+  </si>
+  <si>
+    <t>la sostenibilità di aiutare ad avere un mondo più accogliente</t>
+  </si>
+  <si>
+    <t>È il fare un qualcosa non dannoso per l’ambiente e che non costi un capitale</t>
+  </si>
+  <si>
+    <t>riuscì a fare qualcosa senza peggiorare il mondo</t>
+  </si>
+  <si>
+    <t>per me la sostenibilità è l’impatto positivo che l’uomo ha sulla terra</t>
+  </si>
+  <si>
+    <t>Qualcosa che non inquina l’ambiente</t>
+  </si>
+  <si>
+    <t>La sostenibilità è il modo in cui dovremmo fare per salvare il mondo</t>
+  </si>
+  <si>
+    <t>no all’inquinamento</t>
+  </si>
+  <si>
+    <t>Un qualcosa per vivere bene</t>
+  </si>
+  <si>
+    <t>Pensare all'ambiente</t>
+  </si>
+  <si>
+    <t>la sostenibilità è il non inquinamento</t>
+  </si>
+  <si>
+    <t>Fare attenzione al pianeta</t>
+  </si>
+  <si>
+    <t>Di avere un equilibrio, per il nostro pianeta</t>
+  </si>
+  <si>
+    <t>Devi trovare una linea parallela con glia altri gruppi</t>
+  </si>
+  <si>
+    <t>Che sosteniamo</t>
+  </si>
+  <si>
+    <t>sostenere un luogo o persona</t>
+  </si>
+  <si>
+    <t>Aiutarci a vicenda</t>
+  </si>
+  <si>
+    <t>sostenere le mucche</t>
+  </si>
+  <si>
+    <t>Trovare un punto di equilibrio</t>
+  </si>
+  <si>
+    <t>essere sopportato dal punto di vista ecologico</t>
+  </si>
+  <si>
+    <t>significa che sostieni le cose</t>
+  </si>
+  <si>
+    <t>sost</t>
+  </si>
+  <si>
+    <t>Punto d'incontro</t>
+  </si>
+  <si>
+    <t>economia bastata sulla salvaguardia dell’ambiente</t>
+  </si>
+  <si>
+    <t>economia basata sul salvaguardare l’ambiente</t>
+  </si>
+  <si>
+    <t>economia basata sull'economia dell'ambiente</t>
+  </si>
+  <si>
+    <t>Quanto si sostiene l’ambiente</t>
+  </si>
+  <si>
+    <t>economia basata sulla salvaguardia dell'ambiente</t>
+  </si>
+  <si>
+    <t>Poca spesa tanta rendita</t>
+  </si>
+  <si>
+    <t>scelte a favore dell’ambiente</t>
+  </si>
+  <si>
+    <t>una cosa che può continuare nel tempo e non finire in un tempo breve</t>
+  </si>
+  <si>
+    <t>È un modo di lavorare corretto rispettando l'ambiente</t>
+  </si>
+  <si>
+    <t>La sostenibilità è uno stile che ti permette di vivere meglio e rigenerare l'ambiente</t>
+  </si>
+  <si>
+    <t>Garantire l'autosufficienza senza danneggiare troppo l'ambiente</t>
+  </si>
+  <si>
+    <t>Giuste mucche e molto contributo</t>
+  </si>
+  <si>
+    <t>sostenere l'ambiente, aiutare e migliorare l'ambiente</t>
+  </si>
+  <si>
+    <t>un mondo sostenibile è un mondo dove si vive bene e non ci sono problemi legati all'ambiente che possono essere naturali o artificiali</t>
+  </si>
+  <si>
+    <t>riciclo</t>
+  </si>
+  <si>
+    <t>non lo so ciao</t>
+  </si>
+  <si>
+    <t>I cestini giusti -</t>
+  </si>
+  <si>
+    <t>una cosa che non causa danni all’ambiente </t>
+  </si>
+  <si>
+    <t>non inquinare </t>
+  </si>
+  <si>
+    <t>Aiutare l’ambiente e non inquinare </t>
+  </si>
+  <si>
+    <t>Guadagnare senza spendere tanto </t>
+  </si>
+  <si>
+    <t>scelte sostenibili per salvare l’ambiente </t>
+  </si>
+  <si>
+    <t>guadagnare senza pagare tanto </t>
+  </si>
+  <si>
+    <t>Guadagnare senza pagare tanto </t>
+  </si>
+  <si>
+    <t>Un comportamento che aiuta l'ambiente</t>
+  </si>
+  <si>
+    <t>È quando fai delle scelte dell'ambiente </t>
+  </si>
+  <si>
+    <t>avere un atteggiamento che aiuta l’ambiente e non inquina</t>
+  </si>
+  <si>
+    <t>per me la sostenibilità serve per soddisfare i bisogni attuali senza compromettere le risorse per le generazioni future </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,12 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -121,33 +458,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,120 +798,1588 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D37D0-19A0-47EE-9410-86898D2F40FB}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7EA604-A5C5-4E0E-A738-428CC1C1B149}">
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC0F8E-4C07-4349-A295-6968012E11C7}">
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6</v>
+      <c r="B98" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
